--- a/medicine/Handicap/Miracle_in_Cell_No._7/Miracle_in_Cell_No._7.xlsx
+++ b/medicine/Handicap/Miracle_in_Cell_No._7/Miracle_in_Cell_No._7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Miracle in Cell No. 7 (hangeul : 7번방의 선물 ; RR : 7beonbangui Seonmul ; littéralement : « Un cadeau de la chambre 7 ») est une comédie dramatique sud-coréenne et réalisée par Lee Hwan-kyeong, sortie en 2013[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miracle in Cell No. 7 (hangeul : 7번방의 선물 ; RR : 7beonbangui Seonmul ; littéralement : « Un cadeau de la chambre 7 ») est une comédie dramatique sud-coréenne et réalisée par Lee Hwan-kyeong, sortie en 2013.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homme handicapé mentalement, Yong Gu, vit avec sa fille Ye-seung de 6 ans. Malheureusement il se voit accusé d'un meurtre qu'il n'a pas commis pour la simple raison d'avoir été sur les lieux. Condamné, il est enfermé dans une cellule avec cinq autres prisonniers qui finissent par l'aider à faire venir sa petite fille en prison.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : 7번방의 선물
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Hancinema
 Ryoo Seung-ryong : Lee Yong-goo
@@ -631,18 +649,57 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Baeksang Arts Awards 2013 :
-Grand prix pour le film - Ryoo Seung-ryong[2]
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Baeksang Arts Awards 2013 :
+Grand prix pour le film - Ryoo Seung-ryong
 Actrice la plus populaire - Park Shin-hye
 Mnet 20's Choice Awards 2013 : Meilleur acteur pour Ryoo Seung-ryong
 Grand Bell Awards 2013 :
 Meilleur acteur pour Ryoo Seung-ryong
 Prix spécial du jury pour Kal So-won
 Meilleur scénario pour Lee Hwan-kyeong
-Blue Dragon Film Awards 2013 : Meilleur film
-Nominations
-Baeksang Arts Awards 2013 :
+Blue Dragon Film Awards 2013 : Meilleur film</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Miracle_in_Cell_No._7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miracle_in_Cell_No._7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Baeksang Arts Awards 2013 :
 Meilleur film
 Meilleur acteur pour Ryoo Seung-ryong
 Meilleur acteur dans un second rôle pour Oh Dal-soo
